--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Row</t>
   </si>
@@ -166,6 +166,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -241,7 +307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -251,7 +317,7 @@
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.77734375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.77734375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.77734375" customWidth="true"/>
     <col min="11" max="11" width="15.77734375" customWidth="true"/>
@@ -259,45 +325,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29256066228523359</v>
+        <v>0.29257508072122768</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -329,317 +395,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29203690382297237</v>
+        <v>0.29204744261896787</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-9.5292066885921465e-05</v>
+        <v>-9.3305739652664016e-05</v>
       </c>
       <c r="E3" s="0">
-        <v>8.0409777299312869e-05</v>
+        <v>8.114283119409473e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>5.1627223154679809e-06</v>
+        <v>8.2140301775622327e-06</v>
       </c>
       <c r="G3" s="0">
-        <v>-7.7628430358847327e-06</v>
+        <v>-7.9618103225949048e-06</v>
       </c>
       <c r="H3" s="0">
-        <v>-8.1671948598716926e-07</v>
+        <v>-6.9298510581424583e-07</v>
       </c>
       <c r="I3" s="0">
-        <v>-1.267993722918308e-05</v>
+        <v>-1.323106923438467e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>5.9186684825407454e-07</v>
+        <v>5.9192044643552322e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29196770563610824</v>
+        <v>0.29196231321731531</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00043523866159888891</v>
+        <v>-0.00049076912570227352</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.1473948537261926e-06</v>
+        <v>1.1462225718626079e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>2.4026529198862174e-06</v>
+        <v>2.3696192320762144e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>6.3989031698509401e-06</v>
+        <v>6.345345943726166e-06</v>
       </c>
       <c r="I4" s="0">
-        <v>6.1845610387668457e-05</v>
+        <v>6.0564135185884498e-05</v>
       </c>
       <c r="J4" s="0">
-        <v>-3.1282026013207406e-05</v>
+        <v>-3.1740050478738842e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>4.601835762063633e-06</v>
+        <v>4.601922998226371e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29080020024881587</v>
+        <v>0.29077731509213817</v>
       </c>
       <c r="C5" s="0">
-        <v>-7.9898013273239048e-05</v>
+        <v>-2.7477462106711157e-05</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.00044624561663225774</v>
+        <v>-0.00044479576329502153</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00012135584413825521</v>
+        <v>-0.0001218318359728638</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00038080082266182856</v>
+        <v>-0.00038309206866538167</v>
       </c>
       <c r="G5" s="0">
-        <v>6.4999052189086866e-05</v>
+        <v>6.5277876211487784e-05</v>
       </c>
       <c r="H5" s="0">
-        <v>-1.1780981102543814e-05</v>
+        <v>-1.1866863707221396e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-5.6136197130536557e-05</v>
+        <v>-5.6089495244447697e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>6.5687658329371956e-07</v>
+        <v>6.5690108624893995e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29895401052045523</v>
+        <v>0.29897175634246681</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0067706038737866958</v>
+        <v>0.0067731998280488523</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-5.4364069025514441e-07</v>
+        <v>-5.4368883924767999e-07</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.1604311969241479e-05</v>
+        <v>-4.1601204945791271e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-8.9580114695922671e-06</v>
+        <v>-8.9655859671658734e-06</v>
       </c>
       <c r="I6" s="0">
-        <v>4.7098692121770502e-05</v>
+        <v>4.8757581112500534e-05</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>2.0868672861995563e-07</v>
+        <v>2.0869390077171701e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29907992012900381</v>
+        <v>0.2990955685374948</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0010235214823220312</v>
+        <v>-0.0010231928593518993</v>
       </c>
       <c r="E7" s="0">
-        <v>-3.97952359964494e-05</v>
+        <v>-3.9672445364439171e-05</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00048667142202667819</v>
+        <v>-0.00048616695570302307</v>
       </c>
       <c r="G7" s="0">
-        <v>-8.4703003263595196e-05</v>
+        <v>-8.4938830959889201e-05</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>3.8292879400028382e-05</v>
+        <v>3.8303044271135547e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>3.3484632493419042e-06</v>
+        <v>3.3484892782986719e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B8" s="0">
-        <v>0.30036532763558171</v>
+        <v>0.30032757075284533</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0067114150122535151</v>
+        <v>0.0066548382815885335</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>3.8419079195268131e-07</v>
+        <v>3.8439860611062208e-07</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00022920295092346456</v>
+        <v>-0.00022919900520404932</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>8.288167573768273e-07</v>
+        <v>8.2959018552549462e-07</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.00013033214470307115</v>
+        <v>-0.00013133038189541609</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-5.1216450970836824e-05</v>
+        <v>-5.1215812423732743e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B9" s="0">
-        <v>0.30072290944015251</v>
+        <v>0.30068920165889379</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.00032991953483755903</v>
+        <v>0.00033280322320339609</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.00093817007333149832</v>
+        <v>-0.00093848767392892862</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0047577475904034775</v>
+        <v>-0.0047587424383668878</v>
       </c>
       <c r="G9" s="0">
-        <v>-4.3445741170595914e-05</v>
+        <v>-4.2553210902526763e-05</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00015675798411446084</v>
+        <v>-0.0001568052819897255</v>
       </c>
       <c r="I9" s="0">
-        <v>-4.219811455382696e-05</v>
+        <v>-4.2161705029630487e-05</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>5.3162100653869615e-06</v>
+        <v>5.3161511495147806e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0">
-        <v>0.30558605972423536</v>
+        <v>0.30607321733254206</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0027217972145567458</v>
+        <v>0.0028480200757323767</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>3.5285724592657682e-07</v>
+        <v>3.5331762664278891e-07</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00015338909849444755</v>
+        <v>-0.00015303215435025929</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>3.0663338348735661e-06</v>
+        <v>3.0664553548671964e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>-7.3848516364311351e-05</v>
+        <v>-7.3293193215578104e-05</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0017679501067502455</v>
+        <v>-0.0017768683594056099</v>
       </c>
       <c r="K10" s="0">
-        <v>3.5280154991879087e-07</v>
+        <v>3.51819475830073e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B11" s="0">
-        <v>0.30807026879784466</v>
+        <v>0.30852511269225791</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0034237285009798744</v>
+        <v>0.0034340189337264126</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.0005369761739359674</v>
+        <v>-0.00053222225763501852</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0033905291199690041</v>
+        <v>-0.0033704995456496126</v>
       </c>
       <c r="G11" s="0">
-        <v>-4.4658256493156099e-05</v>
+        <v>-4.4850931662648788e-05</v>
       </c>
       <c r="H11" s="0">
-        <v>-1.3060008938353201e-05</v>
+        <v>-1.2143292491129141e-05</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0003651854062418375</v>
+        <v>-0.00036707277222069648</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>4.8584341486024307e-06</v>
+        <v>4.8591117485785595e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.33181806347342097</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.022161385673930868</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>1.7287249564627995e-06</v>
+      </c>
+      <c r="F12" s="0">
+        <v>1.2884519557142916e-06</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-4.0294599357878774e-07</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.00041131711541831409</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>1.4777418426703548e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Row</t>
   </si>
@@ -232,6 +232,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -307,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -316,8 +457,8 @@
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" customWidth="true"/>
-    <col min="8" max="8" width="15.77734375" customWidth="true"/>
+    <col min="7" max="7" width="16.24609375" customWidth="true"/>
+    <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.77734375" customWidth="true"/>
     <col min="11" max="11" width="15.77734375" customWidth="true"/>
@@ -325,45 +466,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29257508072122768</v>
+        <v>0.29259115612147646</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -395,352 +536,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29204744261896787</v>
+        <v>0.2920575536208358</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-9.3305739652664016e-05</v>
+        <v>-9.4858347052961719e-05</v>
       </c>
       <c r="E3" s="0">
-        <v>8.114283119409473e-05</v>
+        <v>8.0835634925631827e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>8.2140301775622327e-06</v>
+        <v>6.9570164622709898e-06</v>
       </c>
       <c r="G3" s="0">
-        <v>-7.9618103225949048e-06</v>
+        <v>-8.1760617081104429e-06</v>
       </c>
       <c r="H3" s="0">
-        <v>-6.9298510581424583e-07</v>
+        <v>-7.4487779137718045e-07</v>
       </c>
       <c r="I3" s="0">
-        <v>-1.323106923438467e-05</v>
+        <v>-1.3950765755036288e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>5.9192044643552322e-07</v>
+        <v>5.9197780100106456e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29196231321731531</v>
+        <v>0.29191298089382384</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00049076912570227352</v>
+        <v>-0.00052405759869284722</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.1462225718626079e-06</v>
+        <v>1.1466463831102216e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>2.3696192320762144e-06</v>
+        <v>2.3479556556620778e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>6.345345943726166e-06</v>
+        <v>6.301295449744431e-06</v>
       </c>
       <c r="I4" s="0">
-        <v>6.0564135185884498e-05</v>
+        <v>5.9291307810187439e-05</v>
       </c>
       <c r="J4" s="0">
-        <v>-3.1740050478738842e-05</v>
+        <v>-3.4140038022127217e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>4.601922998226371e-06</v>
+        <v>4.6024297420954596e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29077731509213817</v>
+        <v>0.29077497745272896</v>
       </c>
       <c r="C5" s="0">
-        <v>-2.7477462106711157e-05</v>
+        <v>-3.5888560539188653e-05</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.00044479576329502153</v>
+        <v>-0.00044510789916431026</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0001218318359728638</v>
+        <v>-0.00012231219583580752</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00038309206866538167</v>
+        <v>-0.00038527026563870477</v>
       </c>
       <c r="G5" s="0">
-        <v>6.5277876211487784e-05</v>
+        <v>6.5995220600786926e-05</v>
       </c>
       <c r="H5" s="0">
-        <v>-1.1866863707221396e-05</v>
+        <v>-1.1951937722201554e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-5.6089495244447697e-05</v>
+        <v>-5.6030649409894001e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>6.5690108624893995e-07</v>
+        <v>6.5660733783445835e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29897175634246681</v>
+        <v>0.29900722910711192</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0067731998280488523</v>
+        <v>0.0068102404500477581</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-5.4368883924767999e-07</v>
+        <v>-5.4374371390745842e-07</v>
       </c>
       <c r="F6" s="0">
-        <v>-4.1601204945791271e-05</v>
+        <v>-4.1388078780710861e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-8.9655859671658734e-06</v>
+        <v>-8.7481546809225708e-06</v>
       </c>
       <c r="I6" s="0">
-        <v>4.8757581112500534e-05</v>
+        <v>4.9658694769121267e-05</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>2.0869390077171701e-07</v>
+        <v>2.0838984260418414e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B7" s="0">
-        <v>0.2990955685374948</v>
+        <v>0.29912541911226093</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0010231928593518993</v>
+        <v>-0.0010144276901071895</v>
       </c>
       <c r="E7" s="0">
-        <v>-3.9672445364439171e-05</v>
+        <v>-3.6754727754021651e-05</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00048616695570302307</v>
+        <v>-0.00047529205649794141</v>
       </c>
       <c r="G7" s="0">
-        <v>-8.4938830959889201e-05</v>
+        <v>-8.5444264431730016e-05</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>3.8303044271135547e-05</v>
+        <v>3.827678837611836e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>3.3484892782986719e-06</v>
+        <v>3.3485012407852288e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B8" s="0">
-        <v>0.30032757075284533</v>
+        <v>0.30030834707286053</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0066548382815885335</v>
+        <v>0.0068830588068506376</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>3.8439860611062208e-07</v>
+        <v>3.8455785102329138e-07</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00022919900520404932</v>
+        <v>-0.00022935457534101252</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>8.2959018552549462e-07</v>
+        <v>8.262621583472981e-07</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.00013133038189541609</v>
+        <v>-0.00013354204422546642</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-5.1215812423732743e-05</v>
+        <v>-5.1216373127160875e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="B9" s="0">
-        <v>0.30068920165889379</v>
+        <v>0.30065772673017777</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.00033280322320339609</v>
+        <v>0.00030917918640991759</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.00093848767392892862</v>
+        <v>-0.00094121286353205031</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0047587424383668878</v>
+        <v>-0.0047692356837135425</v>
       </c>
       <c r="G9" s="0">
-        <v>-4.2553210902526763e-05</v>
+        <v>-4.4774607441577339e-05</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0001568052819897255</v>
+        <v>-0.00015731411321275677</v>
       </c>
       <c r="I9" s="0">
-        <v>-4.2161705029630487e-05</v>
+        <v>-4.2252569427969981e-05</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>5.3161511495147806e-06</v>
+        <v>5.3163601365091573e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B10" s="0">
-        <v>0.30607321733254206</v>
+        <v>0.30583885932487653</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0028480200757323767</v>
+        <v>0.0027689036373799254</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>3.5331762664278891e-07</v>
+        <v>3.5417163545307517e-07</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00015303215435025929</v>
+        <v>-0.00015457001015837011</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>3.0664553548671964e-06</v>
+        <v>3.066876286675532e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>-7.3293193215578104e-05</v>
+        <v>-7.5214434966857808e-05</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0017768683594056099</v>
+        <v>-0.0017359786431010078</v>
       </c>
       <c r="K10" s="0">
-        <v>3.51819475830073e-07</v>
+        <v>3.5124352060211805e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B11" s="0">
-        <v>0.30852511269225791</v>
+        <v>0.30829856566182018</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0034340189337264126</v>
+        <v>0.0033728080229989098</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.00053222225763501852</v>
+        <v>-0.00055170451467533141</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0033704995456496126</v>
+        <v>-0.0034543120367907512</v>
       </c>
       <c r="G11" s="0">
-        <v>-4.4850931662648788e-05</v>
+        <v>-4.5032861418993955e-05</v>
       </c>
       <c r="H11" s="0">
-        <v>-1.2143292491129141e-05</v>
+        <v>-1.5960680349879291e-05</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.00036707277222069648</v>
+        <v>-0.00037035522122352133</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>4.8591117485785595e-06</v>
+        <v>4.858705459909185e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="B12" s="0">
-        <v>0.33181806347342097</v>
+        <v>0.31634973473310168</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.022161385673930868</v>
+        <v>-0.029204455697890541</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>1.7287249564627995e-06</v>
+        <v>3.3199244230183636e-06</v>
       </c>
       <c r="F12" s="0">
-        <v>1.2884519557142916e-06</v>
+        <v>0.00059745050567953017</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-4.0294599357878774e-07</v>
+        <v>0.00015550921072810255</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.00041131711541831409</v>
+        <v>-0.0040534543719323779</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1.4777418426703548e-06</v>
+        <v>2.0265826533583109e-07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.24683690212315185</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.046130804835862127</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.003944885926149346</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.001501412412041466</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0002890686864894218</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.0001454368930095072</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.0010889391175638652</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>4.9350476924170383e-05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="0">
+        <v>-0.10747589364165955</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.22035076351509925</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>4.0432508555038491e-06</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-2.2899518055493058e-05</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-2.3164146855887554e-06</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.013367403743365824</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>1.4628344059408604e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr2_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Row</t>
   </si>
@@ -373,6 +373,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -448,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="14.24609375" customWidth="true"/>
     <col min="3" max="3" width="16.24609375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
@@ -466,42 +541,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B2" s="0">
         <v>0.29259115612147646</v>
@@ -536,7 +611,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B3" s="0">
         <v>0.2920575536208358</v>
@@ -571,7 +646,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B4" s="0">
         <v>0.29191298089382384</v>
@@ -606,7 +681,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B5" s="0">
         <v>0.29077497745272896</v>
@@ -641,7 +716,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0">
         <v>0.29900722910711192</v>
@@ -676,7 +751,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B7" s="0">
         <v>0.29912541911226093</v>
@@ -711,7 +786,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0">
         <v>0.30030834707286053</v>
@@ -746,7 +821,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B9" s="0">
         <v>0.30065772673017777</v>
@@ -781,7 +856,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B10" s="0">
         <v>0.30583885932487653</v>
@@ -816,7 +891,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B11" s="0">
         <v>0.30829856566182018</v>
@@ -851,7 +926,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B12" s="0">
         <v>0.31634973473310168</v>
@@ -886,7 +961,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B13" s="0">
         <v>0.24683690212315185</v>
@@ -921,37 +996,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.10747589364165955</v>
+        <v>-0.070391953143898733</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.22035076351509925</v>
+        <v>-0.21109803128611371</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>4.0432508555038491e-06</v>
+        <v>-2.5007684840880295e-06</v>
       </c>
       <c r="F14" s="0">
-        <v>-2.2899518055493058e-05</v>
+        <v>-0.00069176574244219171</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-2.3164146855887554e-06</v>
+        <v>-0.002816481606246546</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.013367403743365824</v>
+        <v>-0.015955922824331854</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>1.4628344059408604e-06</v>
+        <v>-0.0017586116483637171</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.21524248366947712</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.13993498153854528</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.002306228194290977</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.008288519931127029</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0078848151464097314</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.00018050980692491114</v>
       </c>
     </row>
   </sheetData>
